--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4170" yWindow="7850" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,40 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>2020/09</t>
-  </si>
-  <si>
-    <t>2022/06</t>
-  </si>
-  <si>
-    <t>Full group + regulators</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Audience</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>talks/20200909/20200909_HA_interaction1.pdf</t>
-  </si>
-  <si>
-    <t>talks/20220628/20220628_HA_interaction2.pdf</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>12 January 2021</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/psi-eiwg-webinar-pioneering-estimands-in-clinical-research</t>
+  </si>
+  <si>
+    <t>PIONEERing estimands in Clinical Research</t>
+  </si>
+  <si>
+    <t>Estimands in Oncology - How and Why</t>
+  </si>
+  <si>
+    <t>02 June 2021</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/psi-eiwg-webinar-estimands-in-oncology---how-and-why</t>
+  </si>
+  <si>
+    <t>Estimands from trial planning to publication in medical journals: The ETHOS trial</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/psi-eiwg-webinar-estimands-from-trial-planning-to-publication-in-medical-journals-the-ethos-trial</t>
+  </si>
+  <si>
+    <t>19 November 2021</t>
+  </si>
+  <si>
+    <t>Proposing Estimands from Different Perspectives</t>
+  </si>
+  <si>
+    <t>30 March 2023</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/psi-eiwg-webinar-proposing-estimands-from-different-perspectives---patient-clinician-regulator-health-technology-assessor-and-statistician</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,14 +105,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,54 +396,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{38AF4AE0-58AB-4C8B-91BE-2EE131DE8F7E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C44515-FFC2-42F9-AAFD-7C73F70E8827}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="7850" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>https://psiweb.org/vod/item/psi-eiwg-webinar-proposing-estimands-from-different-perspectives---patient-clinician-regulator-health-technology-assessor-and-statistician</t>
+  </si>
+  <si>
+    <t>02 July 2024</t>
+  </si>
+  <si>
+    <t>Estimands framework in action, the Alzheimer’s disease case</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/psi-eiwg-webinar-estimands-framework-in-action-the-alzheimer-s-disease-case</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,6 +475,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{38AF4AE0-58AB-4C8B-91BE-2EE131DE8F7E}"/>

--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C44515-FFC2-42F9-AAFD-7C73F70E8827}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB09BD91-3E0C-4052-9F29-864B1A8F4812}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>https://psiweb.org/vod/item/psi-eiwg-webinar-estimands-framework-in-action-the-alzheimer-s-disease-case</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7sV4Q_PrkIA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=20bviiufm2w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7LJ5RTROQh0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YcqmBi2oh0w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kEr-mDr3z_o</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,7 +438,7 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +448,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,8 +462,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -452,8 +476,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -463,8 +490,11 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -474,8 +504,11 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -484,13 +517,17 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{38AF4AE0-58AB-4C8B-91BE-2EE131DE8F7E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B1075240-DEAA-4C9D-B996-BB474F2FDFF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/training.xlsx
+++ b/data/training.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB09BD91-3E0C-4052-9F29-864B1A8F4812}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8011CD13-C671-4411-9B94-534D1305C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68BFCE8F-5463-45C8-A983-63BD360B14FF}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kEr-mDr3z_o</t>
+  </si>
+  <si>
+    <t>03 June 2025</t>
+  </si>
+  <si>
+    <t>Applying the Estimand Framework to Clinical Pharmacology Trials with a Case Study in Bioequivalence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zfgeKWvXwn0</t>
+  </si>
+  <si>
+    <t>https://psiweb.org/vod/item/ewig-webinar-applying-the-estimand-framework-to-clinical-pharmacology-trials-with-a-case-study-in-bioequivalance</t>
   </si>
 </sst>
 </file>
@@ -136,13 +148,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -159,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,12 +542,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{38AF4AE0-58AB-4C8B-91BE-2EE131DE8F7E}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{B1075240-DEAA-4C9D-B996-BB474F2FDFF9}"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://emea01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.youtube.com%2Fwatch%3Fv%3DzfgeKWvXwn0&amp;data=05%7C02%7C%7C1e07f046180141b0ed5708de073f6688%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C638956166036706617%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4PNdCVfvIymh3OMre0PiE3omxYuaUJ0M0Z0KaV8JJQo%3D&amp;reserved=0" xr:uid="{A807C07B-804D-4C49-84A3-C8F456FD98BD}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{A62B021E-0ED0-46EB-9169-28783ACD5A91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>